--- a/aller1_analysis.xlsx
+++ b/aller1_analysis.xlsx
@@ -9,8 +9,7 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Tanger Ville - Tarifa" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Ceuta - Algésiras" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Average Prices" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Average Prices" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -174,7 +173,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Summary'!$C$2:$C$5</f>
+              <f>'Summary'!$C$2</f>
             </numRef>
           </cat>
           <val>
@@ -228,7 +227,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Price</a:t>
+                  <a:t>Price 1PAX</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -249,360 +248,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Price Progression - Ceuta - Algésiras - Naviera Armas Trasmediterranea</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Ceuta - Algésiras'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Summary'!$C$2:$C$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Ceuta - Algésiras'!$C$2:$C$4</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Date</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Price</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Price Progression - Ceuta - Algésiras - FRS</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Ceuta - Algésiras'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Summary'!$C$2:$C$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Ceuta - Algésiras'!$C$2:$C$4</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Date</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Price</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Price Progression - Ceuta - Algésiras - Balearia</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Ceuta - Algésiras'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Summary'!$C$2:$C$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Ceuta - Algésiras'!$C$2:$C$4</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Date</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Price</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -639,12 +284,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Summary'!$B$2:$B$5</f>
+              <f>'Summary'!$B$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Summary'!$D$3:$D$5</f>
+              <f>'Summary'!$E$2:$D$2</f>
             </numRef>
           </val>
         </ser>
@@ -741,77 +386,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -1127,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1170,96 +744,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ceuta - Algésiras</t>
+          <t>Tanger Ville - Tarifa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>Balearia</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38</v>
-      </c>
-      <c r="F2" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ceuta - Algésiras</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
         <is>
           <t>FRS</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35</v>
-      </c>
-      <c r="E3" t="n">
-        <v>35</v>
-      </c>
-      <c r="F3" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ceuta - Algésiras</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Naviera Armas Trasmediterranea</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tanger Ville - Tarifa</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FRS</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C2" s="1" t="n">
+        <v>45161</v>
+      </c>
+      <c r="D2" t="n">
         <v>40.25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E2" t="n">
         <v>40.25</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F2" t="n">
         <v>40.25</v>
       </c>
     </row>
@@ -1304,23 +806,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/aller1_analysis.xlsx
+++ b/aller1_analysis.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Average Prices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanger Med - Algésiras" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Average Prices" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -137,6 +141,124 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:t>Price Progression - Tanger Med - Algésiras - FRS DFDS</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Tanger Med - Algésiras'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Summary'!$C$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tanger Med - Algésiras'!$C$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Price 1PAX</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:t>Average Prices by Company and Trajet</a:t>
             </a:r>
           </a:p>
@@ -162,12 +284,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Summary'!$B$2:$B$1</f>
+              <f>'Summary'!$B$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Summary'!$D$3:$D$1</f>
+              <f>'Summary'!$E$2:$D$2</f>
             </numRef>
           </val>
         </ser>
@@ -237,6 +359,33 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -552,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +739,30 @@
         <is>
           <t>Max Price</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tanger Med - Algésiras</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FRS DFDS</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
@@ -614,4 +787,23 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/aller1_analysis.xlsx
+++ b/aller1_analysis.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanger Med - Algésiras" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Average Prices" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanger Ville - Tarifa" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ceuta - Algésiras" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Average Prices" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -173,12 +175,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Summary'!$C$2</f>
+              <f>'Summary'!$C$2:$C$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Tanger Med - Algésiras'!$C$2</f>
+              <f>'Tanger Med - Algésiras'!$C$2:$C$11</f>
             </numRef>
           </val>
         </ser>
@@ -259,6 +261,832 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:t>Price Progression - Tanger Med - Algésiras - AML - Africa Moroco Link</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Tanger Med - Algésiras'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Summary'!$C$2:$C$18</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tanger Med - Algésiras'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Price 1PAX</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Price Progression - Tanger Med - Algésiras - Balearia</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Tanger Med - Algésiras'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Summary'!$C$2:$C$18</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tanger Med - Algésiras'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Price 1PAX</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Price Progression - Tanger Med - Algésiras - Naviera Armas Trasmediterranea</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Tanger Med - Algésiras'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Summary'!$C$2:$C$18</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tanger Med - Algésiras'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Price 1PAX</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Price Progression - Tanger Ville - Tarifa - FRS DFDS</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Tanger Ville - Tarifa'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Summary'!$C$2:$C$18</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tanger Ville - Tarifa'!$C$2:$C$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Price 1PAX</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Price Progression - Ceuta - Algésiras - Balearia</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Ceuta - Algésiras'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Summary'!$C$2:$C$18</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Ceuta - Algésiras'!$C$2:$C$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Price 1PAX</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Price Progression - Ceuta - Algésiras - FRS DFDS</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Ceuta - Algésiras'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Summary'!$C$2:$C$18</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Ceuta - Algésiras'!$C$2:$C$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Price 1PAX</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Price Progression - Ceuta - Algésiras - Naviera Armas Trasmediterranea</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Ceuta - Algésiras'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Summary'!$C$2:$C$18</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Ceuta - Algésiras'!$C$2:$C$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Price 1PAX</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:t>Average Prices by Company and Trajet</a:t>
             </a:r>
           </a:p>
@@ -284,12 +1112,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Summary'!$B$2</f>
+              <f>'Summary'!$B$2:$B$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Summary'!$E$2:$D$2</f>
+              <f>'Summary'!$D$3:$D$18</f>
             </numRef>
           </val>
         </ser>
@@ -359,6 +1187,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -385,7 +1306,78 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -701,7 +1693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,25 +1736,409 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Ceuta - Algésiras</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Balearia</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45356</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ceuta - Algésiras</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Balearia</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45358</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" t="n">
+        <v>35</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ceuta - Algésiras</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FRS DFDS</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45356</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ceuta - Algésiras</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FRS DFDS</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45358</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ceuta - Algésiras</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45356</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ceuta - Algésiras</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45358</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tanger Med - Algésiras</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AML - Africa Moroco Link</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45356</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tanger Med - Algésiras</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AML - Africa Moroco Link</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45358</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tanger Med - Algésiras</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Balearia</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45356</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tanger Med - Algésiras</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Balearia</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45358</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38</v>
+      </c>
+      <c r="F11" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tanger Med - Algésiras</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>FRS DFDS</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>45336</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D12" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E12" t="n">
         <v>27.5</v>
       </c>
-      <c r="E2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>27.5</v>
+      <c r="F12" t="n">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tanger Med - Algésiras</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FRS DFDS</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>45356</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29</v>
+      </c>
+      <c r="E13" t="n">
+        <v>29</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tanger Med - Algésiras</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FRS DFDS</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45358</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29</v>
+      </c>
+      <c r="E14" t="n">
+        <v>29</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tanger Med - Algésiras</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>45356</v>
+      </c>
+      <c r="D15" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="F15" t="n">
+        <v>32.28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tanger Med - Algésiras</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45358</v>
+      </c>
+      <c r="D16" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="F16" t="n">
+        <v>32.28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FRS DFDS</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45356</v>
+      </c>
+      <c r="D17" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>211.95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FRS DFDS</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45358</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40.25</v>
       </c>
     </row>
   </sheetData>
@@ -806,4 +2182,42 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>